--- a/abundantClones.xlsx
+++ b/abundantClones.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
-    <t xml:space="preserve">posid</t>
+    <t xml:space="preserve">posid2</t>
   </si>
   <si>
     <t xml:space="preserve">M48</t>
@@ -41,178 +41,178 @@
     <t xml:space="preserve">Y6</t>
   </si>
   <si>
-    <t xml:space="preserve">chr1-150690690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1-151667939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1-21746461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1-42272012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1-47299777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1+150692027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr1+26918159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr11-64507744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr11+67333138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr12-65451312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr12+110005820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr12+120212246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr14-39319889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr14-85585943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr15-41758048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr15-80130758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr16-23946178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr16-67051679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr16-69579377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr16+17421645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr16+3620020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr16+68121650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr16+88777208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr17-29751431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr17-40129858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr17-59799434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr17+31123187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr17+4225790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19-14790843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19-14936134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19-15411402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19-3169005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19-3374119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19-41315388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19-42128535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19-52013589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr19+49291365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr2-212989612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr2+155014724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr22+40830401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr3-121480228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr3-47976186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr3+168442658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr5+75409227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr6-34658734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr6-34688997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr6-42664765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr6+34642970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr7-30337346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr7+102096423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr7+88024877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr8-17946693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr8+54800247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr9-125536405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr9-130012033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr9-136818616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr9+136818849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chrX+45054741</t>
+    <t xml:space="preserve">chr1-150690690|GOLPH3L|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1-151667939|SNX27|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1-21746461|USP48|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1-42272012|FOXJ3|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1-47299777|STIL|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1+150692027|GOLPH3L|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1+26918159|NUDC|-3561|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11-64507744|SLC22A11|-47855|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11+67333138|LOC100130987|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12-65451312|MSRB3|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12+110005820|ANKRD13A|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12+120212246|PXN-AS1,PXN|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14-39319889|MIA2|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14-85585943|FLRT2|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15-41758048|MGA|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15-80130758|ZFAND6|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16-23946178|PRKCB|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16-67051679|CBFB|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16-69579377|NFAT5|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16+17421645|XYLT1|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16+3620020|SLX4|-8413|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16+68121650|NFATC3|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16+88777208|PIEZO1|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17-29751431|SSH2|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17-40129858|MSL1|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17-59799434|VMP1|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17+31123187|NF1|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17+4225790|ANKFY1|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19-14790843|OR7C1|8329|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19-14936134|OR7C2|-5353|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19-15411402|AKAP8L|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19-3169005|GNA15|5235|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19-3374119|NFIC|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19-41315388|CCDC97|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19-42128535|POU2F2|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19-52013589|ZNF614|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19+49291365|SLC6A16|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2-212989612|IKZF2|10070|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2+155014724|KCNJ3|156371|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22+40830401|ST13|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3-121480228|POLQ|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3-47976186|MAP4|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3+168442658|EGFEM1P|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5+75409227|COL4A3BP|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6-34658734|C6orf106|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6-34688997|C6orf106|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6-42664765|UBR2|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6+34642970|C6orf106|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7-30337346|ZNRF2|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7+102096423|CUX1|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7+88024877|ADAM22|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8-17946693|PCM1|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8+54800247|RP1|169412|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9-125536405|MAPKAP1|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9-130012033|FNBP1|0|onco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9-136818616|RABL6|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9+136818849|RABL6|0|notOnco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX+45054741|KDM6A|0|onco</t>
   </si>
 </sst>
 </file>

--- a/abundantClones.xlsx
+++ b/abundantClones.xlsx
@@ -596,7 +596,9 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3"/>
+      <c r="F3" t="n">
+        <v>0.407055630936228</v>
+      </c>
       <c r="G3"/>
       <c r="H3" t="n">
         <v>1.16279069767442</v>
@@ -607,7 +609,9 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>0.341296928327645</v>
+      </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -639,14 +643,20 @@
       </c>
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6"/>
+      <c r="D6" t="n">
+        <v>0.654069767441861</v>
+      </c>
       <c r="E6" t="n">
         <v>1.16696588868941</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="H6" t="n">
+        <v>0.422297297297297</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.667808219178082</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -684,7 +694,9 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" t="n">
+        <v>0.68259385665529</v>
+      </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -757,9 +769,15 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="G13" t="n">
+        <v>0.594405594405594</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.891387822270982</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.881934566145092</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -804,12 +822,18 @@
         <v>23</v>
       </c>
       <c r="B16"/>
-      <c r="C16"/>
+      <c r="C16" t="n">
+        <v>0.689127105666156</v>
+      </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
+      <c r="G16" t="n">
+        <v>0.629370629370629</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.754251234229292</v>
+      </c>
       <c r="I16" t="n">
         <v>1.03840682788051</v>
       </c>
@@ -819,12 +843,18 @@
         <v>24</v>
       </c>
       <c r="B17"/>
-      <c r="C17"/>
+      <c r="C17" t="n">
+        <v>0.306278713629403</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
+      <c r="G17" t="n">
+        <v>0.734265734265734</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.767964893033461</v>
+      </c>
       <c r="I17" t="n">
         <v>1.3371266002845</v>
       </c>
@@ -838,10 +868,14 @@
       <c r="D18" t="n">
         <v>1.09011627906977</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="n">
+        <v>0.269299820466786</v>
+      </c>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18"/>
+      <c r="H18" t="n">
+        <v>0.886824324324324</v>
+      </c>
       <c r="I18" t="n">
         <v>1.04452054794521</v>
       </c>
@@ -884,7 +918,9 @@
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21"/>
+      <c r="F21" t="n">
+        <v>0.135685210312076</v>
+      </c>
       <c r="G21"/>
       <c r="H21" t="n">
         <v>1.16279069767442</v>
@@ -916,7 +952,9 @@
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23"/>
+      <c r="B23" t="n">
+        <v>0.170648464163823</v>
+      </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -965,7 +1003,9 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26"/>
+      <c r="F26" t="n">
+        <v>0.135685210312076</v>
+      </c>
       <c r="G26"/>
       <c r="H26" t="n">
         <v>1.16279069767442</v>
@@ -983,7 +1023,9 @@
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
-      <c r="G27"/>
+      <c r="G27" t="n">
+        <v>0.632183908045977</v>
+      </c>
       <c r="H27"/>
       <c r="I27"/>
     </row>
@@ -992,12 +1034,18 @@
         <v>35</v>
       </c>
       <c r="B28"/>
-      <c r="C28"/>
+      <c r="C28" t="n">
+        <v>0.229709035222052</v>
+      </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
+      <c r="G28" t="n">
+        <v>0.41958041958042</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.671969281404279</v>
+      </c>
       <c r="I28" t="n">
         <v>1.12375533428165</v>
       </c>
@@ -1006,7 +1054,9 @@
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29"/>
+      <c r="B29" t="n">
+        <v>0.68259385665529</v>
+      </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1021,7 +1071,9 @@
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30"/>
+      <c r="B30" t="n">
+        <v>0.68259385665529</v>
+      </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1066,7 +1118,9 @@
       <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="n">
+        <v>0.853242320819113</v>
+      </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -1082,11 +1136,15 @@
         <v>41</v>
       </c>
       <c r="B34"/>
-      <c r="C34"/>
+      <c r="C34" t="n">
+        <v>0.918836140888208</v>
+      </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34"/>
+      <c r="G34" t="n">
+        <v>0.909090909090909</v>
+      </c>
       <c r="H34" t="n">
         <v>1.26165660998354</v>
       </c>
@@ -1105,7 +1163,9 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35"/>
+      <c r="G35" t="n">
+        <v>0.979020979020979</v>
+      </c>
       <c r="H35" t="n">
         <v>1.57707076247943</v>
       </c>
@@ -1127,8 +1187,12 @@
       <c r="G36" t="n">
         <v>1.08391608391608</v>
       </c>
-      <c r="H36"/>
-      <c r="I36"/>
+      <c r="H36" t="n">
+        <v>0.932528798683489</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.881934566145092</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1138,7 +1202,9 @@
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37"/>
+      <c r="F37" t="n">
+        <v>0.67842605156038</v>
+      </c>
       <c r="G37"/>
       <c r="H37" t="n">
         <v>1.16279069767442</v>
@@ -1151,14 +1217,20 @@
       </c>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38"/>
+      <c r="D38" t="n">
+        <v>0.436046511627907</v>
+      </c>
       <c r="E38" t="n">
         <v>1.07719928186715</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
+      <c r="H38" t="n">
+        <v>0.253378378378378</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.256849315068493</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1171,7 +1243,9 @@
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39"/>
+      <c r="G39" t="n">
+        <v>0.890804597701149</v>
+      </c>
       <c r="H39"/>
       <c r="I39"/>
     </row>
@@ -1211,7 +1285,9 @@
       <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B42"/>
+      <c r="B42" t="n">
+        <v>0.341296928327645</v>
+      </c>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -1291,15 +1367,21 @@
         <v>54</v>
       </c>
       <c r="B47"/>
-      <c r="C47"/>
+      <c r="C47" t="n">
+        <v>0.918836140888208</v>
+      </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" t="n">
         <v>1.01398601398601</v>
       </c>
-      <c r="H47"/>
-      <c r="I47"/>
+      <c r="H47" t="n">
+        <v>0.767964893033461</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.213371266002845</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1342,11 +1424,17 @@
       <c r="D50" t="n">
         <v>1.38081395348837</v>
       </c>
-      <c r="E50"/>
+      <c r="E50" t="n">
+        <v>0.359066427289048</v>
+      </c>
       <c r="F50"/>
       <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
+      <c r="H50" t="n">
+        <v>0.717905405405405</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.616438356164384</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1357,18 +1445,26 @@
       <c r="D51" t="n">
         <v>1.09011627906977</v>
       </c>
-      <c r="E51"/>
+      <c r="E51" t="n">
+        <v>0.448833034111311</v>
+      </c>
       <c r="F51"/>
       <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
+      <c r="H51" t="n">
+        <v>0.717905405405405</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.633561643835616</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>59</v>
       </c>
       <c r="B52"/>
-      <c r="C52"/>
+      <c r="C52" t="n">
+        <v>0.535987748851455</v>
+      </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
@@ -1387,12 +1483,18 @@
         <v>60</v>
       </c>
       <c r="B53"/>
-      <c r="C53"/>
+      <c r="C53" t="n">
+        <v>0.918836140888208</v>
+      </c>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
+      <c r="G53" t="n">
+        <v>0.944055944055944</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.932528798683489</v>
+      </c>
       <c r="I53" t="n">
         <v>1.09530583214794</v>
       </c>
@@ -1401,7 +1503,9 @@
       <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B54"/>
+      <c r="B54" t="n">
+        <v>0.170648464163823</v>
+      </c>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -1416,7 +1520,9 @@
       <c r="A55" t="s">
         <v>62</v>
       </c>
-      <c r="B55"/>
+      <c r="B55" t="n">
+        <v>0.511945392491468</v>
+      </c>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
@@ -1438,7 +1544,9 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="G56"/>
+      <c r="G56" t="n">
+        <v>0.660919540229885</v>
+      </c>
       <c r="H56"/>
       <c r="I56"/>
     </row>
@@ -1453,7 +1561,9 @@
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="G57"/>
+      <c r="G57" t="n">
+        <v>0.344827586206897</v>
+      </c>
       <c r="H57"/>
       <c r="I57"/>
     </row>
